--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.36031984</v>
+        <v>2749955.360319841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948747.1637539431</v>
+        <v>1387900.646709616</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.0607915108177</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>311.9968678344736</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.94484300193672</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>39.04196664247878</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>102.7659541175181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8185969915816</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.99166070001812</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>119.252931995677</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.994216700629</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>311.4936872159404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586857</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181941</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.87326502069888</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113184</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.09084106573959</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14.73664328357105</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.96863582686727</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>118.9955446623096</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,10 +2533,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.65681779056052</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.55584844405814</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.34190763938523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>12.25677756260502</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>54.92969084765603</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,16 +3715,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>145.8998232290785</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>22.71377501301531</v>
       </c>
       <c r="V43" t="n">
-        <v>224.0445501002037</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
         <v>1268.68094731003</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2517.816571739809</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2299.181904711872</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.2378263186104</v>
+        <v>262.3791120239298</v>
       </c>
       <c r="C4" t="n">
-        <v>404.2378263186104</v>
+        <v>262.3791120239298</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>262.3791120239298</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>262.3791120239298</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>575.7107839802767</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>157.7469758784636</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>157.7469758784636</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.922515462108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2144.1607301002</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1813.097842756629</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.4256366790474</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1347.611616930934</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>961.8233643326894</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>550.8374595430819</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,40 +5030,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.648898594694</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.112659897353</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>579.0685056491508</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212439</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212439</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212439</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212439</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9570010410645</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155896</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805477</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="M15" t="n">
-        <v>904.39166832551</v>
+        <v>828.4426798345004</v>
       </c>
       <c r="N15" t="n">
-        <v>1234.254295989543</v>
+        <v>1632.854258098651</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1912.394323317349</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,28 +5452,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,61 +5504,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>922.2272912967203</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.547424576682</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2305.447192690473</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2488.090670303824</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>557.4905621634935</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>959.9316061372633</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>739.1390269937332</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>112.1025897265192</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,61 +5978,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3263.866788320333</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>3584.202107850035</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>3928.722763487653</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>4598.186524790312</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4780.830002403663</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705745</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705745</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705745</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705745</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>217.4146113212047</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169051</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W25" t="n">
-        <v>620.2426249169051</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X25" t="n">
-        <v>620.2426249169051</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="Y25" t="n">
-        <v>620.2426249169051</v>
+        <v>385.5899330013841</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>263.119855489667</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L27" t="n">
-        <v>509.884983396131</v>
+        <v>494.0288345518301</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.253129788593</v>
+        <v>1262.396980944291</v>
       </c>
       <c r="N27" t="n">
-        <v>2082.664708052743</v>
+        <v>2066.808559208443</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>604.7779628182712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>264.0657286834809</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>494.02883455183</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M30" t="n">
-        <v>814.3641540815318</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.88480971915</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2722.115871456793</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>2968.880999363257</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>3289.216318892959</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>4093.62789715711</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>4763.091658459769</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576118</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>4749.779469576118</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>4749.779469576118</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>4749.779469576118</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677749</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>389.4337831538635</v>
       </c>
       <c r="L36" t="n">
-        <v>517.7409586960525</v>
+        <v>619.3968890222127</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.109105088514</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N36" t="n">
-        <v>1684.333364002905</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O36" t="n">
-        <v>2353.797125305564</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3928.626224708974</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>3759.690041781067</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>4848.473989617722</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W37" t="n">
-        <v>4559.056819580761</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X37" t="n">
-        <v>4331.067268682744</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y37" t="n">
-        <v>4110.274689539214</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7187,16 +7187,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2386.862770609478</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>816.762183007535</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>816.762183007535</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>542.3571927009091</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L42" t="n">
-        <v>772.3202985692583</v>
+        <v>493.0519035688098</v>
       </c>
       <c r="M42" t="n">
-        <v>1092.65561809896</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.067196363111</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="V43" t="n">
-        <v>783.5599953231707</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W43" t="n">
-        <v>494.1428252862101</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X43" t="n">
-        <v>266.1532743881928</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="M45" t="n">
-        <v>1778.261399527878</v>
+        <v>3513.756574335415</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.782055165496</v>
+        <v>4318.168152599566</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>4608.816536887612</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,28 +7822,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,25 +9720,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.53204524669957</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>72.95638990295998</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>144.592936860119</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>241.5332595420151</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>116.0405633468372</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>137.402727397638</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>95.68260218070091</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.86334435507003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>29.9182837052265</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.7771448560086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,10 +24886,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.153806944979</v>
       </c>
       <c r="Y34" t="n">
-        <v>154.2427457127096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,16 +25360,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>239.880865761223</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>163.6549625044387</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25603,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>263.523577385562</v>
       </c>
       <c r="V43" t="n">
-        <v>28.09309322362429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="H2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="O2" t="n">
-        <v>586543.5896065627</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758179</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575836</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.79369057581</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758693</v>
@@ -26442,22 +26442,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603603</v>
+        <v>-196104.7690603606</v>
       </c>
       <c r="C6" t="n">
         <v>393863.1101541843</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541845</v>
+        <v>393863.1101541843</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962602</v>
+        <v>-31391.56650962572</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672703</v>
+        <v>493768.4699672706</v>
       </c>
       <c r="G6" t="n">
+        <v>493768.46996727</v>
+      </c>
+      <c r="H6" t="n">
+        <v>493768.4699672706</v>
+      </c>
+      <c r="I6" t="n">
         <v>493768.4699672707</v>
-      </c>
-      <c r="H6" t="n">
-        <v>493768.4699672705</v>
-      </c>
-      <c r="I6" t="n">
-        <v>493768.4699672705</v>
       </c>
       <c r="J6" t="n">
         <v>317345.2507746775</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.4699672702</v>
+        <v>493768.4699672708</v>
       </c>
       <c r="L6" t="n">
-        <v>493768.4699672706</v>
+        <v>493768.4699672703</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334334</v>
+        <v>358967.4547334333</v>
       </c>
       <c r="N6" t="n">
+        <v>493768.4699672701</v>
+      </c>
+      <c r="O6" t="n">
         <v>493768.4699672704</v>
       </c>
-      <c r="O6" t="n">
-        <v>493768.4699672703</v>
-      </c>
       <c r="P6" t="n">
-        <v>493768.4699672707</v>
+        <v>493768.4699672705</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>51.35492129815377</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>37.24410088293939</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8871371800006</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>106.3790813804525</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>49.16536212734314</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>94.62972336607621</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.84031948191918</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.9938891029508</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>73.78995332016598</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.7442514401132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.03533246204697</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304393</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>262.5905971701976</v>
       </c>
       <c r="P12" t="n">
-        <v>34.77051449707557</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32072,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>317.7027718725981</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>235.7841284138635</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>306.4326583412985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>66.75583490806554</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>123.4283357138056</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33020,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5098095440798</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>56.53888480510415</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>404.5709520419848</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>54.24606391593176</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>285.0631269188124</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,40 +34123,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34205,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>281.1024889064931</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,40 +34360,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,25 +34442,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>42.31815172129598</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>242.1053372686589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>513.8566720024827</v>
       </c>
       <c r="P12" t="n">
-        <v>219.2588757226825</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>568.9688467048832</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>420.2724896394704</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7186238648835</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>136.8513485578931</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>355.7143012373906</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>125.6683705697207</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>307.8049596373892</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>655.8370268742699</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>280.6254601782243</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>223.5318284908992</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>295.1683754480583</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>402.246726176152</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349766</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>151.0887195044822</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>407.7262869447127</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>551.9576365924814</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>293.5842265535811</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.360319841</v>
+        <v>2825485.029984646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1387900.646709616</v>
+        <v>768168.4355169579</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>123.0607915108177</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>317.1738793234753</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.04196664247878</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>65.51651982872606</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>102.7659541175181</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.5931119165706</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>119.252931995677</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>213.6660920096882</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>116.7008590694757</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.994216700629</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>76.48464164091949</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181941</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.87326502069888</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>147.231161047812</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113184</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4734823468189</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.09084106573959</v>
+        <v>157.6270222661114</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>14.73664328357105</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.04507329286444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>118.9955446623096</v>
+        <v>17.13387053928719</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.52415699980631</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.3840346865977</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,19 +3082,19 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.7730907441559</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>27.55584844405814</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>84.07046874737917</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.92969084765603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>115.2165502573735</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>22.71377501301531</v>
+        <v>128.0725132443334</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>164.3675597136124</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2517.816571739809</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2299.181904711872</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2045.420119349963</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2045.420119349963</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.420119349963</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.420119349963</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>940.9219833362306</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>582.6562847294801</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>582.6562847294801</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>575.7107839802767</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>157.7469758784636</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>157.7469758784636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4607,10 +4609,10 @@
         <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164666</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.5003462121384</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298166</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.5995062532301</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537684</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1347.611616930934</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>961.8233643326894</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>550.8374595430819</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,40 +4886,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>368.6712744939927</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.405785702849</v>
+        <v>1137.039420886454</v>
       </c>
       <c r="N12" t="n">
-        <v>1862.817363967</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0685056491508</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1323227212439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1323227212439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1323227212439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1323227212439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>241.9570010410645</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>637.3638619837797</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793943</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5257,25 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155896</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805477</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5285,10 +5287,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,22 +5302,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590538</v>
@@ -5343,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1073603047986</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>828.4426798345004</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.854258098651</v>
+        <v>1256.949335650623</v>
       </c>
       <c r="O15" t="n">
-        <v>1912.394323317349</v>
+        <v>1926.413096953283</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.71371868903</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>644.108030042952</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>644.108030042952</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.9913906306163</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.9913906306163</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>644.108030042952</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>644.108030042952</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>644.108030042952</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,31 +5506,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809974</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N18" t="n">
-        <v>2056.693778606511</v>
+        <v>1606.390201511077</v>
       </c>
       <c r="O18" t="n">
-        <v>2305.447192690473</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2488.090670303824</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.4905621634935</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="C19" t="n">
-        <v>388.5543792355866</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="D19" t="n">
-        <v>388.5543792355866</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="E19" t="n">
-        <v>388.5543792355866</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="F19" t="n">
-        <v>388.5543792355866</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.921157035281</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.921157035281</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.921157035281</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9316061372633</v>
+        <v>809.295358296326</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1390269937332</v>
+        <v>588.5027791527958</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>709.9326922681826</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1478.300838660644</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962217</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.068505649155</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212481</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089123</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E22" t="n">
-        <v>112.1025897265192</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>112.1025897265192</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>112.1025897265192</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1025897265192</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1176.095427778859</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>1176.095427778859</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>1176.095427778859</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229249</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793947</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>3680.077776487778</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>4024.598432125396</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4271.159392765217</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4791.460014500964</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.5899330013841</v>
+        <v>896.5552164996853</v>
       </c>
       <c r="C25" t="n">
-        <v>385.5899330013841</v>
+        <v>727.6190335717785</v>
       </c>
       <c r="D25" t="n">
-        <v>385.5899330013841</v>
+        <v>577.5023941594427</v>
       </c>
       <c r="E25" t="n">
-        <v>385.5899330013841</v>
+        <v>429.5893005770496</v>
       </c>
       <c r="F25" t="n">
-        <v>385.5899330013841</v>
+        <v>282.6993530791392</v>
       </c>
       <c r="G25" t="n">
-        <v>217.4146113212047</v>
+        <v>114.5240313989598</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013841</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X25" t="n">
-        <v>385.5899330013841</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.5899330013841</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,61 +6217,61 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>264.0657286834809</v>
+        <v>406.1262507006259</v>
       </c>
       <c r="L27" t="n">
-        <v>494.0288345518301</v>
+        <v>636.0893565689751</v>
       </c>
       <c r="M27" t="n">
-        <v>1262.396980944291</v>
+        <v>956.4246760986769</v>
       </c>
       <c r="N27" t="n">
-        <v>2066.808559208443</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011341</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2349.156466080599</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>788.7865112929643</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>619.8503283650574</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>469.7336889527216</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6649,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>788.7865112929643</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,10 +6700,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>3016.842610976661</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>3785.210757369123</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>4360.06312280365</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>4608.816536887613</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4791.460014500964</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705859</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>4231.317742927276</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>4231.317742927276</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>3941.900572890315</v>
       </c>
       <c r="X34" t="n">
-        <v>414.0663679705859</v>
+        <v>3941.900572890315</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.0663679705859</v>
+        <v>3721.107993746785</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6937,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7017,22 +7019,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>389.4337831538635</v>
+        <v>246.2867756623458</v>
       </c>
       <c r="L36" t="n">
-        <v>619.3968890222127</v>
+        <v>493.0519035688099</v>
       </c>
       <c r="M36" t="n">
-        <v>1387.765035414674</v>
+        <v>813.3872230985116</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.176613678825</v>
+        <v>1617.798801362663</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2287.262562665322</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123426</v>
+        <v>4034.429209302938</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>3865.493026375032</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>3865.493026375032</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.210845262961</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570741</v>
+        <v>4664.859804174725</v>
       </c>
       <c r="W37" t="n">
-        <v>531.1091870201135</v>
+        <v>4664.859804174725</v>
       </c>
       <c r="X37" t="n">
-        <v>303.1196361220962</v>
+        <v>4436.870253276708</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123426</v>
+        <v>4216.077674133178</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>456.9310311182558</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>686.894136986605</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1455.262283379067</v>
       </c>
       <c r="N39" t="n">
-        <v>2107.32270539078</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O39" t="n">
-        <v>2386.862770609478</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7415,22 +7417,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>2375.456357597608</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623457</v>
+        <v>2786.34662644212</v>
       </c>
       <c r="L42" t="n">
-        <v>493.0519035688098</v>
+        <v>2786.34662644212</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>3554.714772834582</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.977949951427</v>
+        <v>1369.550095563627</v>
       </c>
       <c r="V43" t="n">
-        <v>1164.977949951427</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="W43" t="n">
-        <v>875.5607799144661</v>
+        <v>825.448437320779</v>
       </c>
       <c r="X43" t="n">
-        <v>647.5712290164488</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y43" t="n">
-        <v>426.7786498729187</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,19 +7648,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>3513.756574335415</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N45" t="n">
-        <v>4318.168152599566</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O45" t="n">
-        <v>4608.816536887612</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>4791.460014500963</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>321.4372348410226</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>79.89583043695427</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>149.4424832295832</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,10 +9485,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208058</v>
+        <v>75.02192999114419</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>306.3458456311422</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776746</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>144.592936860119</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>212.77197520799</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.5332595420151</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>116.0405633468372</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>78.47849434122512</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>11.94756567611233</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>137.402727397638</v>
+        <v>8.866546197266217</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.68260218070091</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>188.1922791057129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>29.9182837052265</v>
+        <v>131.7799578282489</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>94.44019540398646</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>93.04992795997147</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.46426165442145</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>198.153806944979</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>168.0671745764488</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.6549625044387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>171.3064480792175</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>263.523577385562</v>
+        <v>158.1648391542439</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385015468</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065634</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758179</v>
+        <v>787.7936905757999</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575836</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758077</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.79369057581</v>
-      </c>
       <c r="I4" t="n">
+        <v>787.7936905758024</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758402</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758024</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26476,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603606</v>
+        <v>-196104.7690603601</v>
       </c>
       <c r="C6" t="n">
         <v>393863.1101541843</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541839</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962572</v>
+        <v>-31391.5665096261</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672706</v>
+        <v>493768.4699672709</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.46996727</v>
+        <v>493768.4699672704</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672706</v>
+        <v>493768.4699672703</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672707</v>
+        <v>493768.4699672704</v>
       </c>
       <c r="J6" t="n">
         <v>317345.2507746775</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.4699672708</v>
+        <v>493768.4699672706</v>
       </c>
       <c r="L6" t="n">
+        <v>493768.4699672706</v>
+      </c>
+      <c r="M6" t="n">
+        <v>358967.4547334332</v>
+      </c>
+      <c r="N6" t="n">
+        <v>493768.4699672704</v>
+      </c>
+      <c r="O6" t="n">
         <v>493768.4699672703</v>
       </c>
-      <c r="M6" t="n">
-        <v>358967.4547334333</v>
-      </c>
-      <c r="N6" t="n">
-        <v>493768.4699672701</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>493768.4699672704</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493768.4699672705</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541004</v>
@@ -26796,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.35492129815377</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>69.06405933257827</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>106.3790813804525</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.16536212734314</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.1379887618984</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>47.9938891029508</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>72.85690632690284</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>266.0329825940049</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>73.78995332016598</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>12.03533246204697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>175.6530016829085</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,19 +29805,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="33">
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>115.4815392304393</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31376,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31387,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>262.5905971701976</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32080,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32093,13 +32095,13 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7841284138635</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32257,7 +32259,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
         <v>76.06970478104651</v>
@@ -32315,28 +32317,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.75583490806554</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32552,7 +32554,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358986</v>
@@ -32564,7 +32566,7 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>341.067822345855</v>
@@ -32710,7 +32712,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
         <v>526.7962671304441</v>
@@ -32792,25 +32794,25 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>391.6477198382022</v>
       </c>
       <c r="P24" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,19 +33028,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>281.8696784571648</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>56.53888480510415</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33260,19 +33262,19 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855527</v>
@@ -33281,10 +33283,10 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33503,22 +33505,22 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>232.6582927241507</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33734,28 +33736,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.12414806478387</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33916,7 +33918,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -33971,13 +33973,13 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724847</v>
@@ -33986,16 +33988,16 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>285.0631269188124</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34135,7 +34137,7 @@
         <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304423</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
         <v>586.162349956552</v>
@@ -34153,7 +34155,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104651</v>
@@ -34208,19 +34210,19 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.2095443425928</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855527</v>
@@ -34366,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041489</v>
@@ -34448,25 +34450,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>380.4309478731433</v>
       </c>
       <c r="O45" t="n">
-        <v>42.31815172129598</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>242.1053372686589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>654.6318082390355</v>
       </c>
       <c r="O12" t="n">
-        <v>513.8566720024827</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>420.2724896394704</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>167.9088632220284</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>431.8061854706914</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.8513485578931</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768301</v>
+        <v>324.2796349471686</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109073</v>
@@ -36440,22 +36442,22 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>249.0514753937578</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>144.0282394828058</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>307.8049596373892</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>175.0041335478089</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>598.833559628141</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>580.6589549843709</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>295.1683754480583</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>269.6125092903908</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>363.3474137959292</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>151.0887195044822</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.37191767592614</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>551.9576365924814</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38029,7 +38031,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109124</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>728.4316101333635</v>
       </c>
       <c r="O45" t="n">
-        <v>293.5842265535811</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818468.015092934</v>
+        <v>2823407.277941966</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536140.196838007</v>
+        <v>549608.0142701895</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>169.5746433961708</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.859157130514522</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -788,13 +788,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>88.42622435099841</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>17.83981377311382</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.762586537471</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.6983007991486</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>165.3327002607877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741778</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>67.61524188852272</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>201.9329882306601</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>6.466060018397674</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>278.059501266118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.82998177290616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
-        <v>205.6365089192246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>134.4442626460251</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.2403795762991</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>225.2305004023552</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2693.250952502551</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2517.073464816721</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2298.438797788784</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2044.677012426876</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1713.614125083305</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1360.845469813191</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>987.3797115521108</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>597.2403795762991</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4436,10 +4436,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C5" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4606,13 +4606,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>399.1577156965978</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>71.96299573260063</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4998,10 +4998,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5132,10 +5132,10 @@
         <v>1095.548343721096</v>
       </c>
       <c r="N12" t="n">
-        <v>1899.959921985247</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.713336069209</v>
+        <v>2109.532760661374</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>604.5184958074271</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>454.4018563950914</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1108.128127811259</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>818.7109577742983</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899876</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N15" t="n">
         <v>1138.699705022018</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.685527502827</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.685527502827</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,10 +5500,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N18" t="n">
         <v>1669.996816116898</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N21" t="n">
         <v>1138.699705022018</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,7 +5940,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011506</v>
@@ -5952,10 +5952,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N24" t="n">
         <v>1138.699705022018</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.618046428081</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.200876391121</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>1141.200876391121</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
         <v>1138.699705022018</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.2349604684848</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C31" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D31" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1068.679471507003</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>813.9949833011162</v>
       </c>
       <c r="W31" t="n">
-        <v>674.2349604684848</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="X31" t="n">
-        <v>674.2349604684848</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.2349604684848</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
         <v>1138.699705022018</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>612.8127116841194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>612.8127116841194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,19 +7499,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7602,13 +7602,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,19 +7736,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
   </sheetData>
@@ -9014,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417976</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.7356618474206</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>86.80494306304027</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.31591677926856</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>77.0677756624132</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>184.5224014353053</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>84.59001010593093</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.7712923801797</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>8.463497070472954</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>125.603980873663</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
-        <v>80.88648941736642</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>32.04930581735249</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065634</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065627</v>
@@ -26337,25 +26337,25 @@
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603601</v>
+        <v>-196104.7690603604</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541839</v>
+        <v>393863.110154184</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="E6" t="n">
-        <v>-32366.15776934776</v>
+        <v>-31489.02563559737</v>
       </c>
       <c r="F6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="G6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412987</v>
       </c>
       <c r="H6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="I6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="J6" t="n">
-        <v>316370.6595149557</v>
+        <v>317247.7916487054</v>
       </c>
       <c r="K6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412987</v>
       </c>
       <c r="L6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="M6" t="n">
-        <v>357992.8634737115</v>
+        <v>358869.9956074608</v>
       </c>
       <c r="N6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="O6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="P6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412982</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>244.2095266246242</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.61924544429719</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>266.2568172696846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>260.8147443664145</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>134.0915024717474</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>7.478382179942002</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31849,16 +31849,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>225.0728617982313</v>
+        <v>264.6492005940247</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32013,7 +32013,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
@@ -32089,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4309478731435</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,16 +32323,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860912</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,25 +32718,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32800,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,16 +33429,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33997,13 +33997,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34471,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>409.5612230238382</v>
+        <v>449.1375618196316</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35734,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N15" t="n">
-        <v>728.4316101333637</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178377</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116981</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197793</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
